--- a/data/pca/factorExposure/factorExposure_2017-07-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02390104086981537</v>
+        <v>-0.009176842226860575</v>
       </c>
       <c r="C2">
-        <v>-0.0002397456845276202</v>
+        <v>0.04374764953481768</v>
       </c>
       <c r="D2">
-        <v>-0.02173635492614302</v>
+        <v>0.02982198586857951</v>
       </c>
       <c r="E2">
-        <v>-0.01533758063774428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0335811075976031</v>
+      </c>
+      <c r="F2">
+        <v>0.01187667983698777</v>
+      </c>
+      <c r="G2">
+        <v>0.07183124933900678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01580843289462071</v>
+        <v>-0.0576760545245398</v>
       </c>
       <c r="C3">
-        <v>0.05147812940934982</v>
+        <v>0.07289245595231431</v>
       </c>
       <c r="D3">
-        <v>-0.008382164472507572</v>
+        <v>0.01480141720021801</v>
       </c>
       <c r="E3">
-        <v>-0.009086485211383388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09740972189589805</v>
+      </c>
+      <c r="F3">
+        <v>0.03513035827953468</v>
+      </c>
+      <c r="G3">
+        <v>0.141112006347825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02373552054882659</v>
+        <v>-0.05972737720154011</v>
       </c>
       <c r="C4">
-        <v>0.0193236736595142</v>
+        <v>0.0643613827673014</v>
       </c>
       <c r="D4">
-        <v>-0.06499643642295125</v>
+        <v>0.02358760811799172</v>
       </c>
       <c r="E4">
-        <v>0.01058684863665945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02254593031477551</v>
+      </c>
+      <c r="F4">
+        <v>0.007792219446916647</v>
+      </c>
+      <c r="G4">
+        <v>0.07334125992067214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01552760991680683</v>
+        <v>-0.03979769739369313</v>
       </c>
       <c r="C6">
-        <v>0.01099720766439337</v>
+        <v>0.0532834656089685</v>
       </c>
       <c r="D6">
-        <v>-0.09167498631939723</v>
+        <v>0.0162327054988717</v>
       </c>
       <c r="E6">
-        <v>0.003496429072610263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02322699820896032</v>
+      </c>
+      <c r="F6">
+        <v>0.01228356788834273</v>
+      </c>
+      <c r="G6">
+        <v>0.05119195643627595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01062072501823602</v>
+        <v>-0.02048108275263766</v>
       </c>
       <c r="C7">
-        <v>0.006627246849311271</v>
+        <v>0.04045196119138828</v>
       </c>
       <c r="D7">
-        <v>-0.03721551935195386</v>
+        <v>0.01301093356675538</v>
       </c>
       <c r="E7">
-        <v>0.05961682082662795</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.00674033851167689</v>
+      </c>
+      <c r="F7">
+        <v>-0.004191074868840044</v>
+      </c>
+      <c r="G7">
+        <v>0.1134128207729504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001896781579203438</v>
+        <v>-0.001638473632565535</v>
       </c>
       <c r="C8">
-        <v>0.0001596374418690654</v>
+        <v>0.02157887602167242</v>
       </c>
       <c r="D8">
-        <v>-0.005385027401458737</v>
+        <v>0.003685920630368609</v>
       </c>
       <c r="E8">
-        <v>0.006503990343032974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02281662425258639</v>
+      </c>
+      <c r="F8">
+        <v>0.01654950887215585</v>
+      </c>
+      <c r="G8">
+        <v>0.04473044783188113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01641862716285656</v>
+        <v>-0.03515837559398669</v>
       </c>
       <c r="C9">
-        <v>0.02016394827890025</v>
+        <v>0.04483830941314841</v>
       </c>
       <c r="D9">
-        <v>-0.04885845125435564</v>
+        <v>0.01604512042092466</v>
       </c>
       <c r="E9">
-        <v>0.001104544291653849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01527831865052967</v>
+      </c>
+      <c r="F9">
+        <v>0.01251131993156527</v>
+      </c>
+      <c r="G9">
+        <v>0.07720179342493681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02019588725273621</v>
+        <v>-0.09264674975513155</v>
       </c>
       <c r="C10">
-        <v>0.1642089159363549</v>
+        <v>-0.1864629111752808</v>
       </c>
       <c r="D10">
-        <v>0.1088959556797567</v>
+        <v>-0.01697272084314149</v>
       </c>
       <c r="E10">
-        <v>-0.005911321013080275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01179171312481153</v>
+      </c>
+      <c r="F10">
+        <v>-0.02021054914214935</v>
+      </c>
+      <c r="G10">
+        <v>0.04978371593054685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0008280071206661936</v>
+        <v>-0.03498674020649946</v>
       </c>
       <c r="C11">
-        <v>0.006919588836437068</v>
+        <v>0.05323668956469662</v>
       </c>
       <c r="D11">
-        <v>-0.04042606823624929</v>
+        <v>0.002398304026658824</v>
       </c>
       <c r="E11">
-        <v>-0.007270061328182188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.008840529097327155</v>
+      </c>
+      <c r="F11">
+        <v>0.02151693886779762</v>
+      </c>
+      <c r="G11">
+        <v>0.0597239664535878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006491414294917262</v>
+        <v>-0.03686331619517706</v>
       </c>
       <c r="C12">
-        <v>0.01302368745074224</v>
+        <v>0.04824860920560001</v>
       </c>
       <c r="D12">
-        <v>-0.04516375652234526</v>
+        <v>0.006170791224260105</v>
       </c>
       <c r="E12">
-        <v>0.003796978680540752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0008913657257739137</v>
+      </c>
+      <c r="F12">
+        <v>0.002059687225439925</v>
+      </c>
+      <c r="G12">
+        <v>0.05536977345003084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02285603624812292</v>
+        <v>-0.01780660808190053</v>
       </c>
       <c r="C13">
-        <v>0.01530442292574258</v>
+        <v>0.03585783126574547</v>
       </c>
       <c r="D13">
-        <v>-0.01019649381799876</v>
+        <v>0.02566878011690776</v>
       </c>
       <c r="E13">
-        <v>-0.01243408250975711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02735896744513503</v>
+      </c>
+      <c r="F13">
+        <v>0.007043829503896807</v>
+      </c>
+      <c r="G13">
+        <v>0.08949577592915353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007965723212508984</v>
+        <v>-0.009312658211333012</v>
       </c>
       <c r="C14">
-        <v>0.01447931451408608</v>
+        <v>0.02604068953697078</v>
       </c>
       <c r="D14">
-        <v>-0.01254680346203234</v>
+        <v>0.008855766117913012</v>
       </c>
       <c r="E14">
-        <v>0.009066010974359967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002456074257783706</v>
+      </c>
+      <c r="F14">
+        <v>-0.005696037397933265</v>
+      </c>
+      <c r="G14">
+        <v>0.07886402829130187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001741846039496511</v>
+        <v>-0.03430424680861078</v>
       </c>
       <c r="C16">
-        <v>0.01300944004077925</v>
+        <v>0.04771769131696692</v>
       </c>
       <c r="D16">
-        <v>-0.0482216304839955</v>
+        <v>0.00188644237882284</v>
       </c>
       <c r="E16">
-        <v>0.002394903072766042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.006954580650059938</v>
+      </c>
+      <c r="F16">
+        <v>0.002860914411835174</v>
+      </c>
+      <c r="G16">
+        <v>0.06317343943251524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01440378446516283</v>
+        <v>-0.02586895420918214</v>
       </c>
       <c r="C19">
-        <v>0.02414020648738149</v>
+        <v>0.04911473880806987</v>
       </c>
       <c r="D19">
-        <v>-0.01858371828980679</v>
+        <v>0.01720420603354812</v>
       </c>
       <c r="E19">
-        <v>0.004592104827058137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06154837818308</v>
+      </c>
+      <c r="F19">
+        <v>0.01933874234406807</v>
+      </c>
+      <c r="G19">
+        <v>0.1036410469284721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01095913794232691</v>
+        <v>-0.01626547248400796</v>
       </c>
       <c r="C20">
-        <v>0.008651515407941393</v>
+        <v>0.03404416457149536</v>
       </c>
       <c r="D20">
-        <v>-0.01107028849092651</v>
+        <v>0.013219649918525</v>
       </c>
       <c r="E20">
-        <v>-0.01051709866860302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02565353082184807</v>
+      </c>
+      <c r="F20">
+        <v>-0.005116411249804964</v>
+      </c>
+      <c r="G20">
+        <v>0.0753621747916369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01516788510410155</v>
+        <v>-0.01577777578424302</v>
       </c>
       <c r="C21">
-        <v>0.02246622429789358</v>
+        <v>0.03723142262619326</v>
       </c>
       <c r="D21">
-        <v>-0.0240414934429735</v>
+        <v>0.01735951640743572</v>
       </c>
       <c r="E21">
-        <v>0.009183927531392227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03766026233877284</v>
+      </c>
+      <c r="F21">
+        <v>-0.0002202154366003749</v>
+      </c>
+      <c r="G21">
+        <v>0.1096417092357793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004659296543222241</v>
+        <v>-0.027918483350924</v>
       </c>
       <c r="C24">
-        <v>0.001133699261988622</v>
+        <v>0.05042815693218133</v>
       </c>
       <c r="D24">
-        <v>-0.04289366715981837</v>
+        <v>0.007336143377323648</v>
       </c>
       <c r="E24">
-        <v>-0.001595512184101446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.004732429821206733</v>
+      </c>
+      <c r="F24">
+        <v>0.01469069133713737</v>
+      </c>
+      <c r="G24">
+        <v>0.064308463933688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01228404653575062</v>
+        <v>-0.04311581337358009</v>
       </c>
       <c r="C25">
-        <v>0.01757606399819289</v>
+        <v>0.05713213207949373</v>
       </c>
       <c r="D25">
-        <v>-0.04551808482520303</v>
+        <v>0.01129477361795008</v>
       </c>
       <c r="E25">
-        <v>-0.001750922760678723</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.002557621055427737</v>
+      </c>
+      <c r="F25">
+        <v>0.009964275825644698</v>
+      </c>
+      <c r="G25">
+        <v>0.06863827687091699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02333993473858622</v>
+        <v>-0.01583622221436492</v>
       </c>
       <c r="C26">
-        <v>0.01109643444061</v>
+        <v>0.007633725424523603</v>
       </c>
       <c r="D26">
-        <v>0.004370172014087485</v>
+        <v>0.02326984910440013</v>
       </c>
       <c r="E26">
-        <v>0.00801882946771873</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.002438953178197836</v>
+      </c>
+      <c r="F26">
+        <v>-0.007326402931401263</v>
+      </c>
+      <c r="G26">
+        <v>0.06429736949611453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04273034160057346</v>
+        <v>-0.1165132128256477</v>
       </c>
       <c r="C28">
-        <v>0.2351472712299526</v>
+        <v>-0.2376219290062923</v>
       </c>
       <c r="D28">
-        <v>0.1616657148683516</v>
+        <v>-0.007650765870338818</v>
       </c>
       <c r="E28">
-        <v>0.01638244256617504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0004664897665947595</v>
+      </c>
+      <c r="F28">
+        <v>-0.02036869348871184</v>
+      </c>
+      <c r="G28">
+        <v>0.06920429176644259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008286152144430061</v>
+        <v>-0.01136813627875931</v>
       </c>
       <c r="C29">
-        <v>0.01789143057151248</v>
+        <v>0.02067007183129557</v>
       </c>
       <c r="D29">
-        <v>-0.01108419166527442</v>
+        <v>0.007683062881647222</v>
       </c>
       <c r="E29">
-        <v>0.004399653512452822</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.004791089673945672</v>
+      </c>
+      <c r="F29">
+        <v>-0.01509506526646633</v>
+      </c>
+      <c r="G29">
+        <v>0.06940419983845254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02406916792971749</v>
+        <v>-0.04645092850802684</v>
       </c>
       <c r="C30">
-        <v>0.0044087125111414</v>
+        <v>0.06398503228600115</v>
       </c>
       <c r="D30">
-        <v>-0.06057404828460714</v>
+        <v>0.02819812279230268</v>
       </c>
       <c r="E30">
-        <v>-0.05140549630268972</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04891141093038169</v>
+      </c>
+      <c r="F30">
+        <v>0.04722624180960885</v>
+      </c>
+      <c r="G30">
+        <v>0.07418083929186926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.009920281764080757</v>
+        <v>-0.05419225132072211</v>
       </c>
       <c r="C31">
-        <v>0.0429912447478226</v>
+        <v>0.03413085126262033</v>
       </c>
       <c r="D31">
-        <v>-0.04436670076539145</v>
+        <v>0.003031239962201351</v>
       </c>
       <c r="E31">
-        <v>0.008166727162597309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.006813882821156894</v>
+      </c>
+      <c r="F31">
+        <v>-0.03865259819271519</v>
+      </c>
+      <c r="G31">
+        <v>0.06402846590530682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006234496637529736</v>
+        <v>0.000123889767015958</v>
       </c>
       <c r="C32">
-        <v>0.01816672413523481</v>
+        <v>0.02677499252417591</v>
       </c>
       <c r="D32">
-        <v>0.007382432008860968</v>
+        <v>-0.003989089316292088</v>
       </c>
       <c r="E32">
-        <v>0.05011551812931733</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01564182294209484</v>
+      </c>
+      <c r="F32">
+        <v>0.04204993425149785</v>
+      </c>
+      <c r="G32">
+        <v>0.09199773960522559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01403260222859898</v>
+        <v>-0.02886779899948862</v>
       </c>
       <c r="C33">
-        <v>0.02574403925113434</v>
+        <v>0.04741016386744507</v>
       </c>
       <c r="D33">
-        <v>-0.01971331901751018</v>
+        <v>0.01496827075436748</v>
       </c>
       <c r="E33">
-        <v>-0.02975991687650369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03222009419776452</v>
+      </c>
+      <c r="F33">
+        <v>0.01766793679542665</v>
+      </c>
+      <c r="G33">
+        <v>0.1002367957965704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003711249960025025</v>
+        <v>-0.04037429102198826</v>
       </c>
       <c r="C34">
-        <v>0.01919105457022298</v>
+        <v>0.06156133678251585</v>
       </c>
       <c r="D34">
-        <v>-0.05007703497239703</v>
+        <v>-0.004335829274290237</v>
       </c>
       <c r="E34">
-        <v>0.006846145378906544</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.001391462274042858</v>
+      </c>
+      <c r="F34">
+        <v>0.0214557707448142</v>
+      </c>
+      <c r="G34">
+        <v>0.07116919362708564</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0132008128440725</v>
+        <v>-0.01571326328788981</v>
       </c>
       <c r="C36">
-        <v>0.02152735978906591</v>
+        <v>0.008833436512137883</v>
       </c>
       <c r="D36">
-        <v>-0.002123943960772709</v>
+        <v>0.01151716716528009</v>
       </c>
       <c r="E36">
-        <v>0.002986866910762455</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0007537270918812792</v>
+      </c>
+      <c r="F36">
+        <v>-0.008471745807887779</v>
+      </c>
+      <c r="G36">
+        <v>0.05780772179488416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003451248127864054</v>
+        <v>-0.03315404257630495</v>
       </c>
       <c r="C38">
-        <v>0.03550865605009197</v>
+        <v>0.02868691438314503</v>
       </c>
       <c r="D38">
-        <v>-0.03277910123246434</v>
+        <v>-0.007838605734788631</v>
       </c>
       <c r="E38">
-        <v>0.004206373469051577</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001812966955908307</v>
+      </c>
+      <c r="F38">
+        <v>-0.01467338016016792</v>
+      </c>
+      <c r="G38">
+        <v>0.06463986418986395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005079807900392961</v>
+        <v>-0.03539540972406059</v>
       </c>
       <c r="C39">
-        <v>-0.01781323839854754</v>
+        <v>0.08236187985083634</v>
       </c>
       <c r="D39">
-        <v>-0.08914625662102943</v>
+        <v>0.01214783433458188</v>
       </c>
       <c r="E39">
-        <v>-0.0170788988192437</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02401168923238253</v>
+      </c>
+      <c r="F39">
+        <v>0.02790458755186331</v>
+      </c>
+      <c r="G39">
+        <v>0.06532015787914794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01291818428673201</v>
+        <v>-0.0192703854509311</v>
       </c>
       <c r="C40">
-        <v>0.02312347038655234</v>
+        <v>0.0324943429212667</v>
       </c>
       <c r="D40">
-        <v>-0.0258302912389523</v>
+        <v>0.01382509810965985</v>
       </c>
       <c r="E40">
-        <v>0.0008450749698455686</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02278721474197678</v>
+      </c>
+      <c r="F40">
+        <v>0.01209301650880664</v>
+      </c>
+      <c r="G40">
+        <v>0.07047117609929492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006321876875274308</v>
+        <v>-0.01775555532205672</v>
       </c>
       <c r="C41">
-        <v>0.0215012245800385</v>
+        <v>0.001955306355518677</v>
       </c>
       <c r="D41">
-        <v>0.008619556114480143</v>
+        <v>0.00368274524207621</v>
       </c>
       <c r="E41">
-        <v>0.002725076834500187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001497261941779837</v>
+      </c>
+      <c r="F41">
+        <v>-0.01101671755160194</v>
+      </c>
+      <c r="G41">
+        <v>0.04349370019739698</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.0937618786961824</v>
+        <v>-0.01232050538881984</v>
       </c>
       <c r="C42">
-        <v>-0.01280509012760486</v>
+        <v>0.03710041555535459</v>
       </c>
       <c r="D42">
-        <v>-0.247615608756234</v>
+        <v>0.0941487568537749</v>
       </c>
       <c r="E42">
-        <v>-0.4211030340806024</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03061974244651961</v>
+      </c>
+      <c r="F42">
+        <v>-0.03735589427347356</v>
+      </c>
+      <c r="G42">
+        <v>-0.177019561955287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007678688909416214</v>
+        <v>-0.03298602714683419</v>
       </c>
       <c r="C43">
-        <v>0.02549836861382107</v>
+        <v>0.01400909913424288</v>
       </c>
       <c r="D43">
-        <v>0.0156896324070045</v>
+        <v>0.00525673421142388</v>
       </c>
       <c r="E43">
-        <v>-0.002086494287049159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01154273889161393</v>
+      </c>
+      <c r="F43">
+        <v>-0.003298249068233345</v>
+      </c>
+      <c r="G43">
+        <v>0.06663358462636816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003359225801979347</v>
+        <v>-0.01784752581939097</v>
       </c>
       <c r="C44">
-        <v>0.007652281805593368</v>
+        <v>0.04896141158756841</v>
       </c>
       <c r="D44">
-        <v>-0.02625942388834486</v>
+        <v>0.005960970196699558</v>
       </c>
       <c r="E44">
-        <v>0.004880276307508528</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01684306334900894</v>
+      </c>
+      <c r="F44">
+        <v>-0.003810861503492646</v>
+      </c>
+      <c r="G44">
+        <v>0.08216377805511646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01135098104935176</v>
+        <v>-0.00851516176594868</v>
       </c>
       <c r="C46">
-        <v>0.01603983499032017</v>
+        <v>0.01659421904396535</v>
       </c>
       <c r="D46">
-        <v>-0.01216899128282566</v>
+        <v>0.01158179889281265</v>
       </c>
       <c r="E46">
-        <v>-0.002671802808406992</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.003849359791526235</v>
+      </c>
+      <c r="F46">
+        <v>-0.01725484886629712</v>
+      </c>
+      <c r="G46">
+        <v>0.06808339986574774</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004647203980479383</v>
+        <v>-0.07913716096831402</v>
       </c>
       <c r="C47">
-        <v>0.05472107358463567</v>
+        <v>0.06302241993324306</v>
       </c>
       <c r="D47">
-        <v>-0.06111677691153369</v>
+        <v>-0.005371271586650174</v>
       </c>
       <c r="E47">
-        <v>0.004088702805233154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01012048071377763</v>
+      </c>
+      <c r="F47">
+        <v>-0.05345351180428554</v>
+      </c>
+      <c r="G47">
+        <v>0.06111303833026702</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004331516877767567</v>
+        <v>-0.02193956524358209</v>
       </c>
       <c r="C48">
-        <v>0.02744861963142126</v>
+        <v>0.01032515924788398</v>
       </c>
       <c r="D48">
-        <v>-0.01237690067668357</v>
+        <v>0.0007411784794175443</v>
       </c>
       <c r="E48">
-        <v>0.001712376427875302</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.00343253929901233</v>
+      </c>
+      <c r="F48">
+        <v>-0.02158362155184109</v>
+      </c>
+      <c r="G48">
+        <v>0.06493864876755069</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006412488814014917</v>
+        <v>-0.07886310394373687</v>
       </c>
       <c r="C50">
-        <v>0.05510721400648993</v>
+        <v>0.06603146112108531</v>
       </c>
       <c r="D50">
-        <v>-0.06487612564821509</v>
+        <v>-0.003399490780132951</v>
       </c>
       <c r="E50">
-        <v>0.02961578996995557</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01285651132883081</v>
+      </c>
+      <c r="F50">
+        <v>-0.05760776515373906</v>
+      </c>
+      <c r="G50">
+        <v>0.0784712350062947</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007453603566968019</v>
+        <v>-0.01550516160526139</v>
       </c>
       <c r="C51">
-        <v>0.01680814615341587</v>
+        <v>0.03163156414528355</v>
       </c>
       <c r="D51">
-        <v>0.002403524384766449</v>
+        <v>0.009645068102254926</v>
       </c>
       <c r="E51">
-        <v>0.004711731222695262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01440019076074693</v>
+      </c>
+      <c r="F51">
+        <v>0.02370450369740539</v>
+      </c>
+      <c r="G51">
+        <v>0.09877701322778412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007930993728484813</v>
+        <v>-0.08563020613590654</v>
       </c>
       <c r="C53">
-        <v>0.06679314265867076</v>
+        <v>0.07972450175224269</v>
       </c>
       <c r="D53">
-        <v>-0.119063941556</v>
+        <v>-0.004716135510073888</v>
       </c>
       <c r="E53">
-        <v>0.007645221230702698</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03271263152355462</v>
+      </c>
+      <c r="F53">
+        <v>-0.05921763823082898</v>
+      </c>
+      <c r="G53">
+        <v>0.04803880811119815</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001321617259835339</v>
+        <v>-0.03285733905157315</v>
       </c>
       <c r="C54">
-        <v>0.03526596504992133</v>
+        <v>0.01436593942995192</v>
       </c>
       <c r="D54">
-        <v>0.006262290993567115</v>
+        <v>-0.002564499326940316</v>
       </c>
       <c r="E54">
-        <v>0.006983732868013459</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.003375623111415797</v>
+      </c>
+      <c r="F54">
+        <v>-0.006518716436277653</v>
+      </c>
+      <c r="G54">
+        <v>0.07063330618251372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003958969770025922</v>
+        <v>-0.0744401461022477</v>
       </c>
       <c r="C55">
-        <v>0.04611333388560142</v>
+        <v>0.06765642635860852</v>
       </c>
       <c r="D55">
-        <v>-0.1015494605660733</v>
+        <v>-0.005708381422452944</v>
       </c>
       <c r="E55">
-        <v>-0.003647297273028157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0264769278666342</v>
+      </c>
+      <c r="F55">
+        <v>-0.05893561379276373</v>
+      </c>
+      <c r="G55">
+        <v>0.03194866673302872</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.007134040391902532</v>
+        <v>-0.1442379914738724</v>
       </c>
       <c r="C56">
-        <v>0.09424208945228923</v>
+        <v>0.1049521826194452</v>
       </c>
       <c r="D56">
-        <v>-0.156481184537594</v>
+        <v>-0.01319200810840229</v>
       </c>
       <c r="E56">
-        <v>-0.005269843481109957</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03698599059973012</v>
+      </c>
+      <c r="F56">
+        <v>-0.07845283956285562</v>
+      </c>
+      <c r="G56">
+        <v>0.007251246933187191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02444563216925645</v>
+        <v>-0.008158029252197354</v>
       </c>
       <c r="C57">
-        <v>0.01733516047987686</v>
+        <v>0.008840161883985001</v>
       </c>
       <c r="D57">
-        <v>-0.04444819817229916</v>
+        <v>0.02338561178379926</v>
       </c>
       <c r="E57">
-        <v>-0.006292197942027264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02445754084848956</v>
+      </c>
+      <c r="F57">
+        <v>0.007596523910723092</v>
+      </c>
+      <c r="G57">
+        <v>0.02891221205443044</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01689396427142629</v>
+        <v>-0.07463883237086734</v>
       </c>
       <c r="C58">
-        <v>0.08926817359687246</v>
+        <v>0.0362393092582218</v>
       </c>
       <c r="D58">
-        <v>-0.09785013467947369</v>
+        <v>0.02223878146436846</v>
       </c>
       <c r="E58">
-        <v>-0.3964610266091638</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9369987101209484</v>
+      </c>
+      <c r="F58">
+        <v>-0.2438838657581843</v>
+      </c>
+      <c r="G58">
+        <v>-0.08171387493866517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04027609797938569</v>
+        <v>-0.155172056716478</v>
       </c>
       <c r="C59">
-        <v>0.2531167516598183</v>
+        <v>-0.2117037490129836</v>
       </c>
       <c r="D59">
-        <v>0.1587001804291547</v>
+        <v>-0.01368684213570332</v>
       </c>
       <c r="E59">
-        <v>0.009691267696740398</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01027488689663343</v>
+      </c>
+      <c r="F59">
+        <v>0.002033470306808985</v>
+      </c>
+      <c r="G59">
+        <v>0.03804005920158556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04169659620523709</v>
+        <v>-0.2876816828612956</v>
       </c>
       <c r="C60">
-        <v>0.163579181952547</v>
+        <v>0.09171981393975365</v>
       </c>
       <c r="D60">
-        <v>-0.07492913886193307</v>
+        <v>0.01331692627069277</v>
       </c>
       <c r="E60">
-        <v>-0.01357968599093819</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.001969271135298544</v>
+      </c>
+      <c r="F60">
+        <v>0.3526909428742314</v>
+      </c>
+      <c r="G60">
+        <v>-0.126808790758447</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003550960660679205</v>
+        <v>-0.03720963986425008</v>
       </c>
       <c r="C61">
-        <v>0.008456654510019855</v>
+        <v>0.06510559283649459</v>
       </c>
       <c r="D61">
-        <v>-0.06368361123306734</v>
+        <v>0.005394746142136965</v>
       </c>
       <c r="E61">
-        <v>-0.003139778669415354</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01163033801355581</v>
+      </c>
+      <c r="F61">
+        <v>0.01627671765719684</v>
+      </c>
+      <c r="G61">
+        <v>0.05824297427385025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007867482215104544</v>
+        <v>-0.01471014887609343</v>
       </c>
       <c r="C63">
-        <v>0.008508598565109054</v>
+        <v>0.02861846317503423</v>
       </c>
       <c r="D63">
-        <v>-0.009779775327576221</v>
+        <v>0.008004122475084014</v>
       </c>
       <c r="E63">
-        <v>0.008601648904203235</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.002996507778506218</v>
+      </c>
+      <c r="F63">
+        <v>-0.01722928054744307</v>
+      </c>
+      <c r="G63">
+        <v>0.06763632356746316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.008648533120107603</v>
+        <v>-0.05026107252429207</v>
       </c>
       <c r="C64">
-        <v>0.02922671941918384</v>
+        <v>0.04390128531570604</v>
       </c>
       <c r="D64">
-        <v>-0.05967854259527138</v>
+        <v>0.005765143076480093</v>
       </c>
       <c r="E64">
-        <v>-0.01757244178588065</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.004283112299088408</v>
+      </c>
+      <c r="F64">
+        <v>0.002996734760033466</v>
+      </c>
+      <c r="G64">
+        <v>0.05115413229376622</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01767907471909003</v>
+        <v>-0.08105217941660102</v>
       </c>
       <c r="C65">
-        <v>0.01098982907837822</v>
+        <v>0.05702978248325478</v>
       </c>
       <c r="D65">
-        <v>-0.1109841461510202</v>
+        <v>0.01571671884104978</v>
       </c>
       <c r="E65">
-        <v>0.007406019226179669</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02406134548722838</v>
+      </c>
+      <c r="F65">
+        <v>0.03011908464424548</v>
+      </c>
+      <c r="G65">
+        <v>0.02201287234173029</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.00518143438911408</v>
+        <v>-0.05262555703295226</v>
       </c>
       <c r="C66">
-        <v>-0.0117691087464251</v>
+        <v>0.1116924271541611</v>
       </c>
       <c r="D66">
-        <v>-0.1140040048495537</v>
+        <v>0.01205725543387206</v>
       </c>
       <c r="E66">
-        <v>-0.01519427204137958</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02918817205680654</v>
+      </c>
+      <c r="F66">
+        <v>0.03637778138405634</v>
+      </c>
+      <c r="G66">
+        <v>0.0707133642799853</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003198253422292837</v>
+        <v>-0.05502833790552648</v>
       </c>
       <c r="C67">
-        <v>0.05675061691748128</v>
+        <v>0.03164334317042502</v>
       </c>
       <c r="D67">
-        <v>-0.03766484591882149</v>
+        <v>-0.005833633997504665</v>
       </c>
       <c r="E67">
-        <v>0.005495345292633862</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003976884379064387</v>
+      </c>
+      <c r="F67">
+        <v>-0.01472302458356677</v>
+      </c>
+      <c r="G67">
+        <v>0.06062205902789931</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05707512854883689</v>
+        <v>-0.1410225371260863</v>
       </c>
       <c r="C68">
-        <v>0.2304447487609783</v>
+        <v>-0.2727893429781412</v>
       </c>
       <c r="D68">
-        <v>0.1569042977011843</v>
+        <v>0.004043783540098704</v>
       </c>
       <c r="E68">
-        <v>-0.01055948111034441</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.006834977262221924</v>
+      </c>
+      <c r="F68">
+        <v>-0.031563253998092</v>
+      </c>
+      <c r="G68">
+        <v>0.0219358399398924</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0006433212683008273</v>
+        <v>-0.08184895240540534</v>
       </c>
       <c r="C69">
-        <v>0.04330397865284264</v>
+        <v>0.06731317138802231</v>
       </c>
       <c r="D69">
-        <v>-0.06350405493844273</v>
+        <v>-0.009322680353025914</v>
       </c>
       <c r="E69">
-        <v>0.007051038431905513</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02708764645769123</v>
+      </c>
+      <c r="F69">
+        <v>-0.03740753045025041</v>
+      </c>
+      <c r="G69">
+        <v>0.06325937868362025</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04288633183657901</v>
+        <v>-0.1306994181607347</v>
       </c>
       <c r="C71">
-        <v>0.2043377459073587</v>
+        <v>-0.2348250202737721</v>
       </c>
       <c r="D71">
-        <v>0.1404054967130559</v>
+        <v>-0.004635641352390838</v>
       </c>
       <c r="E71">
-        <v>-0.003107447552016087</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02553169133813204</v>
+      </c>
+      <c r="F71">
+        <v>-0.01280739309156566</v>
+      </c>
+      <c r="G71">
+        <v>0.04486636200957193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.00044753878798395</v>
+        <v>-0.08691886474221518</v>
       </c>
       <c r="C72">
-        <v>0.04824918176638389</v>
+        <v>0.07109964683147101</v>
       </c>
       <c r="D72">
-        <v>-0.1329571150226711</v>
+        <v>-0.007966221784858063</v>
       </c>
       <c r="E72">
-        <v>-0.00165593460414837</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.002821118169207854</v>
+      </c>
+      <c r="F72">
+        <v>0.0429942246399273</v>
+      </c>
+      <c r="G72">
+        <v>0.049322566599992</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05523636562577823</v>
+        <v>-0.3841293953905319</v>
       </c>
       <c r="C73">
-        <v>0.1891583344854667</v>
+        <v>0.1061629810828895</v>
       </c>
       <c r="D73">
-        <v>-0.1578059762043934</v>
+        <v>0.02297864705593379</v>
       </c>
       <c r="E73">
-        <v>-0.05814514699613851</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.07280991962237751</v>
+      </c>
+      <c r="F73">
+        <v>0.5683892627923502</v>
+      </c>
+      <c r="G73">
+        <v>-0.1984683065700351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.003590891095911139</v>
+        <v>-0.1126374891053698</v>
       </c>
       <c r="C74">
-        <v>0.07982873685766143</v>
+        <v>0.1101844108569885</v>
       </c>
       <c r="D74">
-        <v>-0.1553666429372089</v>
+        <v>-0.01022197786994963</v>
       </c>
       <c r="E74">
-        <v>-0.01257115655445988</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01604839673940542</v>
+      </c>
+      <c r="F74">
+        <v>-0.07321375252043336</v>
+      </c>
+      <c r="G74">
+        <v>0.05307106544866187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01358333726176944</v>
+        <v>-0.2504218912588977</v>
       </c>
       <c r="C75">
-        <v>0.1887333177811477</v>
+        <v>0.1474534935145411</v>
       </c>
       <c r="D75">
-        <v>-0.2897271154143006</v>
+        <v>-0.03018884127820084</v>
       </c>
       <c r="E75">
-        <v>-0.02377793241933489</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05868537675222733</v>
+      </c>
+      <c r="F75">
+        <v>-0.180119490987161</v>
+      </c>
+      <c r="G75">
+        <v>-0.06160158272831811</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001035498395020217</v>
+        <v>-0.126976136307337</v>
       </c>
       <c r="C76">
-        <v>0.1200429361663905</v>
+        <v>0.1126009377520688</v>
       </c>
       <c r="D76">
-        <v>-0.2294744138997031</v>
+        <v>-0.02066392988532307</v>
       </c>
       <c r="E76">
-        <v>0.02408597683108775</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04719355993709787</v>
+      </c>
+      <c r="F76">
+        <v>-0.117296024023038</v>
+      </c>
+      <c r="G76">
+        <v>0.02657034750210027</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01292371663895185</v>
+        <v>-0.06752678475272741</v>
       </c>
       <c r="C77">
-        <v>0.02069128067109993</v>
+        <v>0.05622018591731223</v>
       </c>
       <c r="D77">
-        <v>-0.04560156596768793</v>
+        <v>0.01221984976991121</v>
       </c>
       <c r="E77">
-        <v>-0.01798928831338868</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.05135960738633652</v>
+      </c>
+      <c r="F77">
+        <v>0.01216861206046482</v>
+      </c>
+      <c r="G77">
+        <v>0.06656380741637723</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005085037664240864</v>
+        <v>-0.04541414564781605</v>
       </c>
       <c r="C78">
-        <v>0.01567244005428559</v>
+        <v>0.04870342690353859</v>
       </c>
       <c r="D78">
-        <v>-0.06156796629862786</v>
+        <v>0.005323859197507871</v>
       </c>
       <c r="E78">
-        <v>-0.01085844817619105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02167640998501551</v>
+      </c>
+      <c r="F78">
+        <v>0.03617129862572255</v>
+      </c>
+      <c r="G78">
+        <v>0.06727099329883457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01595818171266456</v>
+        <v>-0.05802556327017794</v>
       </c>
       <c r="C80">
-        <v>0.09300707155355542</v>
+        <v>0.06611999630666653</v>
       </c>
       <c r="D80">
-        <v>-0.2336566966455836</v>
+        <v>0.009937922312654578</v>
       </c>
       <c r="E80">
-        <v>0.7867940695690059</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02819332462732488</v>
+      </c>
+      <c r="F80">
+        <v>0.005809376442515482</v>
+      </c>
+      <c r="G80">
+        <v>0.6956631737732214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008692818884174608</v>
+        <v>-0.1427053319987897</v>
       </c>
       <c r="C81">
-        <v>0.1128587841158168</v>
+        <v>0.08983408202907016</v>
       </c>
       <c r="D81">
-        <v>-0.1643734787426899</v>
+        <v>-0.01557220651535439</v>
       </c>
       <c r="E81">
-        <v>0.006521776519315568</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03609624925035224</v>
+      </c>
+      <c r="F81">
+        <v>-0.127584845836377</v>
+      </c>
+      <c r="G81">
+        <v>0.01543359115433073</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1218467944266751</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0602107993652437</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.006994021042672469</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08444971743941504</v>
+      </c>
+      <c r="F82">
+        <v>-0.02234817016350278</v>
+      </c>
+      <c r="G82">
+        <v>0.03050803330806679</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007291959134318952</v>
+        <v>-0.03319533656896156</v>
       </c>
       <c r="C83">
-        <v>0.02189901499733281</v>
+        <v>0.02324298321955621</v>
       </c>
       <c r="D83">
-        <v>-0.01943072096133558</v>
+        <v>0.005909105625310612</v>
       </c>
       <c r="E83">
-        <v>-0.002610961265604468</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.03089448369654587</v>
+      </c>
+      <c r="F83">
+        <v>0.03504792165643044</v>
+      </c>
+      <c r="G83">
+        <v>0.04948801041493946</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01917879787970563</v>
+        <v>-0.2172641310284782</v>
       </c>
       <c r="C85">
-        <v>0.1462816213690261</v>
+        <v>0.142477952834874</v>
       </c>
       <c r="D85">
-        <v>-0.2628500840291404</v>
+        <v>-0.01772098617429905</v>
       </c>
       <c r="E85">
-        <v>-0.01727017865822759</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09853404836265847</v>
+      </c>
+      <c r="F85">
+        <v>-0.141474390507021</v>
+      </c>
+      <c r="G85">
+        <v>-0.106109023817122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009164055084267337</v>
+        <v>-0.01695767036665443</v>
       </c>
       <c r="C86">
-        <v>0.03153634298510614</v>
+        <v>0.02312152677451584</v>
       </c>
       <c r="D86">
-        <v>-0.01762303031389861</v>
+        <v>0.01122457393335848</v>
       </c>
       <c r="E86">
-        <v>-0.04346577844426098</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0440437035311636</v>
+      </c>
+      <c r="F86">
+        <v>0.04179767464345495</v>
+      </c>
+      <c r="G86">
+        <v>0.1327355935575709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007953569362310026</v>
+        <v>-0.02321604393585814</v>
       </c>
       <c r="C87">
-        <v>0.01239461759486851</v>
+        <v>0.02767550030502625</v>
       </c>
       <c r="D87">
-        <v>-0.04419296003536841</v>
+        <v>0.01140460970133071</v>
       </c>
       <c r="E87">
-        <v>-0.0139975021198638</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08569365216941</v>
+      </c>
+      <c r="F87">
+        <v>0.02050239134343219</v>
+      </c>
+      <c r="G87">
+        <v>0.09273340448297197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02830988035077515</v>
+        <v>-0.09208789858175211</v>
       </c>
       <c r="C88">
-        <v>0.03543219134777723</v>
+        <v>0.06438360066432947</v>
       </c>
       <c r="D88">
-        <v>-0.0324077195910933</v>
+        <v>0.0227603806536881</v>
       </c>
       <c r="E88">
-        <v>0.002651486884526938</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01124227804381602</v>
+      </c>
+      <c r="F88">
+        <v>-0.0226312893001841</v>
+      </c>
+      <c r="G88">
+        <v>0.06449307857870035</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07892882248303762</v>
+        <v>-0.217196859138258</v>
       </c>
       <c r="C89">
-        <v>0.3668406200981718</v>
+        <v>-0.3759130826509016</v>
       </c>
       <c r="D89">
-        <v>0.247272336275708</v>
+        <v>-0.003332312650468128</v>
       </c>
       <c r="E89">
-        <v>0.02678551372039347</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02172928841564617</v>
+      </c>
+      <c r="F89">
+        <v>-0.02250487440620064</v>
+      </c>
+      <c r="G89">
+        <v>0.04700357846197543</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06096594568670177</v>
+        <v>-0.1955985351673558</v>
       </c>
       <c r="C90">
-        <v>0.2876035608675706</v>
+        <v>-0.3283169271267977</v>
       </c>
       <c r="D90">
-        <v>0.211304032802868</v>
+        <v>-0.007772727652106559</v>
       </c>
       <c r="E90">
-        <v>-0.006597554146232214</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01668580274867389</v>
+      </c>
+      <c r="F90">
+        <v>-0.05119530620320111</v>
+      </c>
+      <c r="G90">
+        <v>0.01470980181348833</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.00913777659455633</v>
+        <v>-0.1949855155201468</v>
       </c>
       <c r="C91">
-        <v>0.1619173829166119</v>
+        <v>0.1379328902231271</v>
       </c>
       <c r="D91">
-        <v>-0.2374436005474107</v>
+        <v>-0.02345438587538407</v>
       </c>
       <c r="E91">
-        <v>0.006889452628008654</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07098430768786249</v>
+      </c>
+      <c r="F91">
+        <v>-0.1540109475716139</v>
+      </c>
+      <c r="G91">
+        <v>0.008099572251323368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.02806773399232532</v>
+        <v>-0.1960291687464824</v>
       </c>
       <c r="C92">
-        <v>0.3045885681268487</v>
+        <v>-0.263146999347204</v>
       </c>
       <c r="D92">
-        <v>0.0992193136042011</v>
+        <v>-0.04284721998992448</v>
       </c>
       <c r="E92">
-        <v>-0.008373860668548245</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.01269615375644345</v>
+      </c>
+      <c r="F92">
+        <v>-0.06833993782128428</v>
+      </c>
+      <c r="G92">
+        <v>0.1167609683162064</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05928075493741019</v>
+        <v>-0.2205595316888441</v>
       </c>
       <c r="C93">
-        <v>0.3133287348886918</v>
+        <v>-0.3281070694610035</v>
       </c>
       <c r="D93">
-        <v>0.2014666370809098</v>
+        <v>-0.0139667118140425</v>
       </c>
       <c r="E93">
-        <v>-0.03273108740327208</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.003025158710918876</v>
+      </c>
+      <c r="F93">
+        <v>-0.03384044479068821</v>
+      </c>
+      <c r="G93">
+        <v>0.014273929455877</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03346958949797871</v>
+        <v>-0.3183445839407166</v>
       </c>
       <c r="C94">
-        <v>0.1922840862053511</v>
+        <v>0.1668736683885955</v>
       </c>
       <c r="D94">
-        <v>-0.2402570491394793</v>
+        <v>-0.01783706993155825</v>
       </c>
       <c r="E94">
-        <v>-0.01566410264923673</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1661493370346233</v>
+      </c>
+      <c r="F94">
+        <v>-0.4757098844131734</v>
+      </c>
+      <c r="G94">
+        <v>-0.265663371959365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004372590555483299</v>
+        <v>-0.09889844162650736</v>
       </c>
       <c r="C95">
-        <v>0.03848905236315869</v>
+        <v>0.08192370538165013</v>
       </c>
       <c r="D95">
-        <v>-0.07834239307566604</v>
+        <v>-0.00867503133043579</v>
       </c>
       <c r="E95">
-        <v>-0.13138103447215</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06280497236354375</v>
+      </c>
+      <c r="F95">
+        <v>0.1880813131578273</v>
+      </c>
+      <c r="G95">
+        <v>-0.07013079305966732</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01621523188385559</v>
+        <v>-0.1995532808357527</v>
       </c>
       <c r="C98">
-        <v>0.1697495185339836</v>
+        <v>0.04220336332477071</v>
       </c>
       <c r="D98">
-        <v>-0.113981438286723</v>
+        <v>-0.01215160637835137</v>
       </c>
       <c r="E98">
-        <v>-0.06055480061235963</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06672788699087723</v>
+      </c>
+      <c r="F98">
+        <v>0.2440937493370676</v>
+      </c>
+      <c r="G98">
+        <v>-0.02859508848556819</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008069451948235967</v>
+        <v>-0.01118726431380241</v>
       </c>
       <c r="C101">
-        <v>0.01758059982169026</v>
+        <v>0.02062742485400596</v>
       </c>
       <c r="D101">
-        <v>-0.01081237863284605</v>
+        <v>0.007504289651766352</v>
       </c>
       <c r="E101">
-        <v>0.004856363429748019</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.005061373533839515</v>
+      </c>
+      <c r="F101">
+        <v>-0.01611968937472654</v>
+      </c>
+      <c r="G101">
+        <v>0.06903852879885843</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01909715939516577</v>
+        <v>-0.1208261099234455</v>
       </c>
       <c r="C102">
-        <v>0.08518176641388657</v>
+        <v>0.08351071440377043</v>
       </c>
       <c r="D102">
-        <v>-0.1298871915884127</v>
+        <v>0.001103389398156842</v>
       </c>
       <c r="E102">
-        <v>-0.004922877239438719</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03368693296981725</v>
+      </c>
+      <c r="F102">
+        <v>-0.0418317444080253</v>
+      </c>
+      <c r="G102">
+        <v>-0.006593870312611031</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002212766220283427</v>
+        <v>-0.003560606950106303</v>
       </c>
       <c r="C103">
-        <v>0.01246984541947875</v>
+        <v>0.003222775923326818</v>
       </c>
       <c r="D103">
-        <v>-0.02310211562053083</v>
+        <v>0.0001634165303180196</v>
       </c>
       <c r="E103">
-        <v>0.01352377429145831</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001257281837391458</v>
+      </c>
+      <c r="F103">
+        <v>-0.005806557157266684</v>
+      </c>
+      <c r="G103">
+        <v>0.01290825971743548</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9757184753727914</v>
+        <v>-0.0229487339312983</v>
       </c>
       <c r="C104">
-        <v>-0.172092924300427</v>
+        <v>-0.03493149998912852</v>
       </c>
       <c r="D104">
-        <v>0.008697158659563331</v>
+        <v>0.9873427869450664</v>
       </c>
       <c r="E104">
-        <v>0.04225786586304207</v>
+        <v>-0.04766788444845784</v>
+      </c>
+      <c r="F104">
+        <v>-0.04184161774172229</v>
+      </c>
+      <c r="G104">
+        <v>-0.0180787060005815</v>
       </c>
     </row>
   </sheetData>
